--- a/Lithuania_2025 reform options.xlsx
+++ b/Lithuania_2025 reform options.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\international-tax-competitiveness-index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{129BCB3B-9F4B-44CC-A1A3-7C9AC2F0AB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B27A11-D55F-40BA-9EA0-887BA2DDD791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{D3DE23B3-D362-4B34-8D09-518620552FD9}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{D3DE23B3-D362-4B34-8D09-518620552FD9}"/>
   </bookViews>
   <sheets>
     <sheet name="Lithuania_reform" sheetId="1" r:id="rId1"/>
+    <sheet name="VAT" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="37">
   <si>
     <t>ISO_2</t>
   </si>
@@ -102,13 +103,58 @@
   </si>
   <si>
     <t>Policy alternative: Abolish reduced corporate rates (0% rate and 6% rate); abolish revenue threshold for VAT; increase VAT base from 60 to 76 percent of final consumption</t>
+  </si>
+  <si>
+    <t>Rate gap (B)</t>
+  </si>
+  <si>
+    <t>o/w agricultural products, foodstuffs, beverages (%)</t>
+  </si>
+  <si>
+    <t>o/w pharmaceuticals (%)</t>
+  </si>
+  <si>
+    <t>o/w transport services (%)</t>
+  </si>
+  <si>
+    <t>o/w accommodation and restaurant  services (%)</t>
+  </si>
+  <si>
+    <t>o/w utilities (%)</t>
+  </si>
+  <si>
+    <t>Other (%)</t>
+  </si>
+  <si>
+    <t>Policy Gap</t>
+  </si>
+  <si>
+    <t>Rate brackets</t>
+  </si>
+  <si>
+    <t>Status Quo</t>
+  </si>
+  <si>
+    <t>Reform</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Evolution of the Rate Gap under Reform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current reform plan: Corporate rate from 16 to 17%; full expensing for machinery and equipment and intangibles; CGT from 20 to 32%, VAT base-broadening (+1.81% of NIR), </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,16 +162,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE3EEFD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -133,12 +207,211 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31F5368-E565-4F91-84D8-E0B305D06331}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1240,7 +1513,269 @@
         <v>21</v>
       </c>
     </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18">
+        <v>2025</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <v>77.857474057617694</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <v>82.141310110011105</v>
+      </c>
+      <c r="I18">
+        <v>11</v>
+      </c>
+      <c r="J18">
+        <v>76.026008866472594</v>
+      </c>
+      <c r="K18">
+        <v>27</v>
+      </c>
+      <c r="L18">
+        <v>50.802700028919602</v>
+      </c>
+      <c r="M18">
+        <v>7</v>
+      </c>
+      <c r="N18">
+        <v>74.804477396552599</v>
+      </c>
+      <c r="O18">
+        <v>16</v>
+      </c>
+      <c r="P18">
+        <v>73.353150869184404</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8277062E-8CEE-484D-9D99-187CACE52C63}">
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="11.53125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="8"/>
+    </row>
+    <row r="2" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="4"/>
+      <c r="B2" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="15"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="16">
+        <v>0.21</v>
+      </c>
+      <c r="J3" s="17">
+        <v>0.12</v>
+      </c>
+      <c r="K3" s="17">
+        <v>0.09</v>
+      </c>
+      <c r="L3" s="17">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H5" s="3">
+        <f>SUM(B5:G5)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D6" s="3">
+        <f>D5/(I3-K3)*(I3-J3)</f>
+        <v>0.375</v>
+      </c>
+      <c r="E6" s="3">
+        <f>E5/(J3-L3)*(J3-K3)</f>
+        <v>0.81428571428571439</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H6" s="3">
+        <f>SUM(B6:G6)</f>
+        <v>2.6892857142857145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="3">
+        <f>B6-B5</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" ref="C7:G7" si="0">C6-C5</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.125</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
+        <v>-1.0857142857142854</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.6</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <f>SUM(B7:G7)</f>
+        <v>-1.8107142857142855</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>